--- a/src/test/resources/HRM.xlsx
+++ b/src/test/resources/HRM.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\eclipse-workspace\RaghuSir\com.hrm\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E4AE33-E96D-4C1C-8D89-19B8498D5914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373D28E4-418C-4031-BF7B-9B366C87AE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{47036A18-D248-47C9-BF38-2B5D74090AF5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{47036A18-D248-47C9-BF38-2B5D74090AF5}"/>
   </bookViews>
   <sheets>
     <sheet name="book" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="dataprovider" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -493,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8104B4C3-0828-4811-9E7B-452E1EE3567B}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -730,7 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4E2DA0-CD4C-49C1-A9A4-5F1F3C049C74}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -767,4 +768,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2F86D2-E4FE-4754-8B50-C07194C7E9CB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>